--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7301,6 +7301,72 @@
         <v>347.5723076923077</v>
       </c>
       <c r="F297" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>347.3441176470589</v>
+      </c>
+      <c r="C298" t="n">
+        <v>352.6142857142857</v>
+      </c>
+      <c r="D298" t="n">
+        <v>352.2015384615385</v>
+      </c>
+      <c r="E298" t="n">
+        <v>356.2115384615385</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>352.8435294117647</v>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>352.0552941176471</v>
+      </c>
+      <c r="C300" t="n">
+        <v>350.4785714285715</v>
+      </c>
+      <c r="D300" t="n">
+        <v>351.9969230769231</v>
+      </c>
+      <c r="E300" t="n">
+        <v>358.9169230769231</v>
+      </c>
+      <c r="F300" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7317,7 +7383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10385,6 +10451,36 @@
       </c>
       <c r="B306" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -10553,28 +10649,28 @@
         <v>0.0956</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03890645353383439</v>
+        <v>0.04018298884332619</v>
       </c>
       <c r="J2" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001087544774077354</v>
+        <v>0.001188122227963828</v>
       </c>
       <c r="M2" t="n">
-        <v>6.468234099157407</v>
+        <v>6.422715001478148</v>
       </c>
       <c r="N2" t="n">
-        <v>67.52481858828511</v>
+        <v>66.82476404598151</v>
       </c>
       <c r="O2" t="n">
-        <v>8.217348634948204</v>
+        <v>8.174641524004677</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2367435016009</v>
+        <v>349.2235309377394</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -10630,28 +10726,28 @@
         <v>0.0803</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1830506947589725</v>
+        <v>0.1846831891664455</v>
       </c>
       <c r="J3" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01695071945574023</v>
+        <v>0.01753170529461212</v>
       </c>
       <c r="M3" t="n">
-        <v>7.557132809040022</v>
+        <v>7.508935766485819</v>
       </c>
       <c r="N3" t="n">
-        <v>92.5659805955831</v>
+        <v>91.89660259746863</v>
       </c>
       <c r="O3" t="n">
-        <v>9.62112158719466</v>
+        <v>9.586271569148698</v>
       </c>
       <c r="P3" t="n">
-        <v>345.8824911151756</v>
+        <v>345.8656814045165</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -10707,28 +10803,28 @@
         <v>0.0732</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2300633230844334</v>
+        <v>0.2280266425301816</v>
       </c>
       <c r="J4" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K4" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03346524884956403</v>
+        <v>0.0334256853697773</v>
       </c>
       <c r="M4" t="n">
-        <v>6.668962905052344</v>
+        <v>6.627649278785342</v>
       </c>
       <c r="N4" t="n">
-        <v>71.11936439936683</v>
+        <v>70.59221696865588</v>
       </c>
       <c r="O4" t="n">
-        <v>8.433229772712636</v>
+        <v>8.401917457857811</v>
       </c>
       <c r="P4" t="n">
-        <v>347.5257193670361</v>
+        <v>347.5472320113289</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -10784,28 +10880,28 @@
         <v>0.0728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3180186544566305</v>
+        <v>0.3160314010986321</v>
       </c>
       <c r="J5" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K5" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04616779882216038</v>
+        <v>0.04635740715559244</v>
       </c>
       <c r="M5" t="n">
-        <v>7.762826684510002</v>
+        <v>7.713439518128703</v>
       </c>
       <c r="N5" t="n">
-        <v>98.59043578223485</v>
+        <v>97.86530437785102</v>
       </c>
       <c r="O5" t="n">
-        <v>9.929271664237758</v>
+        <v>9.892689441089871</v>
       </c>
       <c r="P5" t="n">
-        <v>350.7357356804315</v>
+        <v>350.756359466013</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -10842,7 +10938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19822,6 +19918,90 @@
         </is>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>-35.550389249796815,174.47106499940642</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-35.55110171459156,174.47131250006615</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>-35.55178363223365,174.47166068862</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-35.55240012781998,174.47215722249263</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-35.55037840923908,174.47112419354337</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.550379963027076,174.47111570919918</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.551107657470155,174.4712900919329</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-35.55178447505333,174.4716586809354</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-35.552387581463265,174.47218281349046</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -10494,7 +10494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10585,35 +10585,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -10672,27 +10677,28 @@
       <c r="P2" t="n">
         <v>349.2235309377394</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.4673262497318 -35.55107388375833, 174.47728975899474 -35.54924910009611)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4673262497318</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.55107388375833</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4772897589947</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.54924910009611</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4723080043633</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.55016149192722</v>
       </c>
     </row>
@@ -10749,27 +10755,28 @@
       <c r="P3" t="n">
         <v>345.8656814045165</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.46761278819582 -35.552082850271404, 174.4773241104585 -35.54950718988468)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4676127881958</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.5520828502714</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4773241104585</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.54950718988468</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4724684493272</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.55079502007804</v>
       </c>
     </row>
@@ -10826,27 +10833,28 @@
       <c r="P4" t="n">
         <v>347.5472320113289</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.46820482624608 -35.553234317491054, 174.47728499274925 -35.54942236859104)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4682048262461</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.55323431749105</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4772849927492</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.54942236859104</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4727449094977</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.55132834304105</v>
       </c>
     </row>
@@ -10903,27 +10911,28 @@
       <c r="P5" t="n">
         <v>350.756359466013</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.46878764608653 -35.554052030670896, 174.47754061854116 -35.549760636590925)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4687876460865</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.5540520306709</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4775406185412</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.54976063659092</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4731641323139</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.55190633363091</v>
       </c>
     </row>

--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7369,6 +7369,54 @@
       <c r="F300" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>351.6205882352941</v>
+      </c>
+      <c r="C301" t="n">
+        <v>352.7757142857143</v>
+      </c>
+      <c r="D301" t="n">
+        <v>354.9092307692308</v>
+      </c>
+      <c r="E301" t="n">
+        <v>367.2992307692308</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>346.3482352941176</v>
+      </c>
+      <c r="C302" t="n">
+        <v>348.1985714285714</v>
+      </c>
+      <c r="D302" t="n">
+        <v>350.3507692307692</v>
+      </c>
+      <c r="E302" t="n">
+        <v>347.4407692307692</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7383,7 +7431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10481,6 +10529,26 @@
       </c>
       <c r="B309" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -10654,28 +10722,28 @@
         <v>0.0956</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04018298884332619</v>
+        <v>0.03819649989338567</v>
       </c>
       <c r="J2" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K2" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001188122227963828</v>
+        <v>0.001090450997375592</v>
       </c>
       <c r="M2" t="n">
-        <v>6.422715001478148</v>
+        <v>6.393520989608533</v>
       </c>
       <c r="N2" t="n">
-        <v>66.82476404598151</v>
+        <v>66.38463034340334</v>
       </c>
       <c r="O2" t="n">
-        <v>8.174641524004677</v>
+        <v>8.147676376943512</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2235309377394</v>
+        <v>349.2440548896319</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10732,28 +10800,28 @@
         <v>0.0803</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1846831891664455</v>
+        <v>0.1845517234709197</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01753170529461212</v>
+        <v>0.01778896995251811</v>
       </c>
       <c r="M3" t="n">
-        <v>7.508935766485819</v>
+        <v>7.470579799589508</v>
       </c>
       <c r="N3" t="n">
-        <v>91.89660259746863</v>
+        <v>91.25951883167284</v>
       </c>
       <c r="O3" t="n">
-        <v>9.586271569148698</v>
+        <v>9.55298481269979</v>
       </c>
       <c r="P3" t="n">
-        <v>345.8656814045165</v>
+        <v>345.867065171271</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10810,28 +10878,28 @@
         <v>0.0732</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2280266425301816</v>
+        <v>0.226854752144911</v>
       </c>
       <c r="J4" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0334256853697773</v>
+        <v>0.0336128503818125</v>
       </c>
       <c r="M4" t="n">
-        <v>6.627649278785342</v>
+        <v>6.594825846258378</v>
       </c>
       <c r="N4" t="n">
-        <v>70.59221696865588</v>
+        <v>70.10443176377105</v>
       </c>
       <c r="O4" t="n">
-        <v>8.401917457857811</v>
+        <v>8.372838930958308</v>
       </c>
       <c r="P4" t="n">
-        <v>347.5472320113289</v>
+        <v>347.5597074280979</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10888,28 +10956,28 @@
         <v>0.0728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3160314010986321</v>
+        <v>0.3136892912198045</v>
       </c>
       <c r="J5" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K5" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04635740715559244</v>
+        <v>0.04610923917000509</v>
       </c>
       <c r="M5" t="n">
-        <v>7.713439518128703</v>
+        <v>7.729574192491047</v>
       </c>
       <c r="N5" t="n">
-        <v>97.86530437785102</v>
+        <v>97.8864103633594</v>
       </c>
       <c r="O5" t="n">
-        <v>9.892689441089871</v>
+        <v>9.893756130174191</v>
       </c>
       <c r="P5" t="n">
-        <v>350.756359466013</v>
+        <v>350.7809692925243</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -10947,7 +11015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20011,6 +20079,70 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.55038081992929,174.47111103014652</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.55110126539722,174.47131419379113</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-35.55177247912826,174.47168725647228</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-35.552348708057835,174.47226210405702</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.55039121289827,174.4710542800043</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.55111400183638,174.47126616993538</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.551791255631414,174.47164252888481</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-35.55244080266558,174.47207425725142</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7417,6 +7417,102 @@
       <c r="F302" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>367.6264705882353</v>
+      </c>
+      <c r="C303" t="n">
+        <v>350.8428571428572</v>
+      </c>
+      <c r="D303" t="n">
+        <v>354.8723076923077</v>
+      </c>
+      <c r="E303" t="n">
+        <v>358.1523076923077</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>350.1770588235294</v>
+      </c>
+      <c r="C304" t="n">
+        <v>341.0285714285715</v>
+      </c>
+      <c r="D304" t="n">
+        <v>344.5192307692308</v>
+      </c>
+      <c r="E304" t="n">
+        <v>348.1292307692308</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>362.8505882352941</v>
+      </c>
+      <c r="C305" t="n">
+        <v>358.4157142857143</v>
+      </c>
+      <c r="D305" t="n">
+        <v>362.0992307692308</v>
+      </c>
+      <c r="E305" t="n">
+        <v>366.8092307692308</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>354.8041176470588</v>
+      </c>
+      <c r="C306" t="n">
+        <v>344.6257142857143</v>
+      </c>
+      <c r="D306" t="n">
+        <v>342.0138461538461</v>
+      </c>
+      <c r="E306" t="n">
+        <v>340.4338461538461</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10549,6 +10645,46 @@
       </c>
       <c r="B311" t="n">
         <v>0.73</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -10722,28 +10858,28 @@
         <v>0.0956</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03819649989338567</v>
+        <v>0.06449358884772455</v>
       </c>
       <c r="J2" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K2" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001090450997375592</v>
+        <v>0.003121753074943889</v>
       </c>
       <c r="M2" t="n">
-        <v>6.393520989608533</v>
+        <v>6.435709922427778</v>
       </c>
       <c r="N2" t="n">
-        <v>66.38463034340334</v>
+        <v>67.14278051701326</v>
       </c>
       <c r="O2" t="n">
-        <v>8.147676376943512</v>
+        <v>8.194069838426644</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2440548896319</v>
+        <v>348.9706327587342</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10800,28 +10936,28 @@
         <v>0.0803</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1845517234709197</v>
+        <v>0.1788302089447485</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01778896995251811</v>
+        <v>0.01714356282329388</v>
       </c>
       <c r="M3" t="n">
-        <v>7.470579799589508</v>
+        <v>7.44860652119386</v>
       </c>
       <c r="N3" t="n">
-        <v>91.25951883167284</v>
+        <v>90.61728499777116</v>
       </c>
       <c r="O3" t="n">
-        <v>9.55298481269979</v>
+        <v>9.519311161936622</v>
       </c>
       <c r="P3" t="n">
-        <v>345.867065171271</v>
+        <v>345.9269633884148</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10878,28 +11014,28 @@
         <v>0.0732</v>
       </c>
       <c r="I4" t="n">
-        <v>0.226854752144911</v>
+        <v>0.2190094791302437</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K4" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0336128503818125</v>
+        <v>0.03194575804024946</v>
       </c>
       <c r="M4" t="n">
-        <v>6.594825846258378</v>
+        <v>6.608910732002124</v>
       </c>
       <c r="N4" t="n">
-        <v>70.10443176377105</v>
+        <v>70.12066180298547</v>
       </c>
       <c r="O4" t="n">
-        <v>8.372838930958308</v>
+        <v>8.373808082526461</v>
       </c>
       <c r="P4" t="n">
-        <v>347.5597074280979</v>
+        <v>347.6438030963295</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10956,28 +11092,28 @@
         <v>0.0728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3136892912198045</v>
+        <v>0.2965555750300781</v>
       </c>
       <c r="J5" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K5" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04610923917000509</v>
+        <v>0.04197514851110817</v>
       </c>
       <c r="M5" t="n">
-        <v>7.729574192491047</v>
+        <v>7.749891422460515</v>
       </c>
       <c r="N5" t="n">
-        <v>97.8864103633594</v>
+        <v>98.33181163135248</v>
       </c>
       <c r="O5" t="n">
-        <v>9.893756130174191</v>
+        <v>9.9162397929534</v>
       </c>
       <c r="P5" t="n">
-        <v>350.7809692925243</v>
+        <v>350.9618860497873</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11015,7 +11151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20143,6 +20279,134 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.55034926864796,174.47128331292194</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.551106643802186,174.47129391405622</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.551772631216096,174.47168689418345</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.552391127405954,174.47217558077824</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.55038366544634,174.47109549239855</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.55113395316817,174.47119094152276</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-35.551815275970725,174.47158530984586</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-35.55243760989555,174.4720807696112</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.55035868303773,174.47123190669464</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.551085571407,174.4713733692321</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-35.551742863169856,174.47175780465042</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-35.55235098046074,174.47225746901364</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-35.550374544478814,174.47114529676512</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-35.55112394371916,174.4712286831381</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-35.55182559574167,174.47156072700838</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-35.55247329755377,174.4720079766796</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7513,6 +7513,30 @@
       <c r="F306" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>353.1170588235294</v>
+      </c>
+      <c r="C307" t="n">
+        <v>348.7771428571428</v>
+      </c>
+      <c r="D307" t="n">
+        <v>353.0169230769231</v>
+      </c>
+      <c r="E307" t="n">
+        <v>360.1369230769231</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7527,7 +7551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10685,6 +10709,16 @@
       </c>
       <c r="B315" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -10858,28 +10892,28 @@
         <v>0.0956</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06449358884772455</v>
+        <v>0.06637708433022932</v>
       </c>
       <c r="J2" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K2" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003121753074943889</v>
+        <v>0.003331170080179691</v>
       </c>
       <c r="M2" t="n">
-        <v>6.435709922427778</v>
+        <v>6.421940016679067</v>
       </c>
       <c r="N2" t="n">
-        <v>67.14278051701326</v>
+        <v>66.91679178115112</v>
       </c>
       <c r="O2" t="n">
-        <v>8.194069838426644</v>
+        <v>8.180268441875922</v>
       </c>
       <c r="P2" t="n">
-        <v>348.9706327587342</v>
+        <v>348.9509936012321</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10936,28 +10970,28 @@
         <v>0.0803</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1788302089447485</v>
+        <v>0.1775048631075593</v>
       </c>
       <c r="J3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01714356282329388</v>
+        <v>0.01702603178766815</v>
       </c>
       <c r="M3" t="n">
-        <v>7.44860652119386</v>
+        <v>7.42822615102623</v>
       </c>
       <c r="N3" t="n">
-        <v>90.61728499777116</v>
+        <v>90.30100429749162</v>
       </c>
       <c r="O3" t="n">
-        <v>9.519311161936622</v>
+        <v>9.502684057543512</v>
       </c>
       <c r="P3" t="n">
-        <v>345.9269633884148</v>
+        <v>345.9408700043422</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11014,28 +11048,28 @@
         <v>0.0732</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2190094791302437</v>
+        <v>0.2188121331310123</v>
       </c>
       <c r="J4" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03194575804024946</v>
+        <v>0.03213811146867185</v>
       </c>
       <c r="M4" t="n">
-        <v>6.608910732002124</v>
+        <v>6.58542399477589</v>
       </c>
       <c r="N4" t="n">
-        <v>70.12066180298547</v>
+        <v>69.86214865807524</v>
       </c>
       <c r="O4" t="n">
-        <v>8.373808082526461</v>
+        <v>8.358358012078403</v>
       </c>
       <c r="P4" t="n">
-        <v>347.6438030963295</v>
+        <v>347.6459213835035</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11092,28 +11126,28 @@
         <v>0.0728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2965555750300781</v>
+        <v>0.2977701821823499</v>
       </c>
       <c r="J5" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K5" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04197514851110817</v>
+        <v>0.04263324550069103</v>
       </c>
       <c r="M5" t="n">
-        <v>7.749891422460515</v>
+        <v>7.72707623499804</v>
       </c>
       <c r="N5" t="n">
-        <v>98.33181163135248</v>
+        <v>97.97648033884549</v>
       </c>
       <c r="O5" t="n">
-        <v>9.9162397929534</v>
+        <v>9.89830694305069</v>
       </c>
       <c r="P5" t="n">
-        <v>350.9618860497873</v>
+        <v>350.9490402845597</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11151,7 +11185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20407,6 +20441,38 @@
         </is>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-35.55037787005133,174.47112713773734</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-35.55111239189426,174.47127224036745</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-35.55178027362865,174.47166868916722</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-35.552381923650394,174.47219435381268</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7537,6 +7537,50 @@
       <c r="F307" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>368.0158823529412</v>
+      </c>
+      <c r="C308" t="n">
+        <v>350.5657142857143</v>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>351.8117647058824</v>
+      </c>
+      <c r="C309" t="n">
+        <v>351.9114285714285</v>
+      </c>
+      <c r="D309" t="n">
+        <v>351.7369230769231</v>
+      </c>
+      <c r="E309" t="n">
+        <v>350.3169230769231</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7551,7 +7595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10719,6 +10763,26 @@
       </c>
       <c r="B316" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -10892,28 +10956,28 @@
         <v>0.0956</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06637708433022932</v>
+        <v>0.080121265871227</v>
       </c>
       <c r="J2" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003331170080179691</v>
+        <v>0.004842698322680028</v>
       </c>
       <c r="M2" t="n">
-        <v>6.421940016679067</v>
+        <v>6.44732181677505</v>
       </c>
       <c r="N2" t="n">
-        <v>66.91679178115112</v>
+        <v>67.52285070895459</v>
       </c>
       <c r="O2" t="n">
-        <v>8.180268441875922</v>
+        <v>8.21722889476462</v>
       </c>
       <c r="P2" t="n">
-        <v>348.9509936012321</v>
+        <v>348.807378457836</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10970,28 +11034,28 @@
         <v>0.0803</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1775048631075593</v>
+        <v>0.1785904647291264</v>
       </c>
       <c r="J3" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01702603178766815</v>
+        <v>0.01750080567801227</v>
       </c>
       <c r="M3" t="n">
-        <v>7.42822615102623</v>
+        <v>7.37987670718147</v>
       </c>
       <c r="N3" t="n">
-        <v>90.30100429749162</v>
+        <v>89.66054256158853</v>
       </c>
       <c r="O3" t="n">
-        <v>9.502684057543512</v>
+        <v>9.468925100643078</v>
       </c>
       <c r="P3" t="n">
-        <v>345.9408700043422</v>
+        <v>345.9294263765914</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11048,28 +11112,28 @@
         <v>0.0732</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2188121331310123</v>
+        <v>0.2176039466594731</v>
       </c>
       <c r="J4" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03213811146867185</v>
+        <v>0.03204045607401484</v>
       </c>
       <c r="M4" t="n">
-        <v>6.58542399477589</v>
+        <v>6.566643257677</v>
       </c>
       <c r="N4" t="n">
-        <v>69.86214865807524</v>
+        <v>69.61408496740162</v>
       </c>
       <c r="O4" t="n">
-        <v>8.358358012078403</v>
+        <v>8.343505556263603</v>
       </c>
       <c r="P4" t="n">
-        <v>347.6459213835035</v>
+        <v>347.6589506920624</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11126,28 +11190,28 @@
         <v>0.0728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2977701821823499</v>
+        <v>0.2912882830717394</v>
       </c>
       <c r="J5" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04263324550069103</v>
+        <v>0.04109345318657243</v>
       </c>
       <c r="M5" t="n">
-        <v>7.72707623499804</v>
+        <v>7.728194775843797</v>
       </c>
       <c r="N5" t="n">
-        <v>97.97648033884549</v>
+        <v>97.86705381198767</v>
       </c>
       <c r="O5" t="n">
-        <v>9.89830694305069</v>
+        <v>9.892777861247451</v>
       </c>
       <c r="P5" t="n">
-        <v>350.9490402845597</v>
+        <v>351.0179146156203</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11185,7 +11249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20473,6 +20537,62 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-35.55034850102465,174.4712875044379</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-35.551107414984884,174.47129100624474</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-35.55038044307786,174.47111308791665</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-35.55110367037546,174.47130512561733</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-35.55178554600458,174.47165612981732</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-35.552427464375974,174.47210146363133</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7581,6 +7581,54 @@
       <c r="F309" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>349.4205882352941</v>
+      </c>
+      <c r="C310" t="n">
+        <v>344.4328571428572</v>
+      </c>
+      <c r="D310" t="n">
+        <v>344.82</v>
+      </c>
+      <c r="E310" t="n">
+        <v>341.74</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>348.2864705882353</v>
+      </c>
+      <c r="C311" t="n">
+        <v>346.8185714285714</v>
+      </c>
+      <c r="D311" t="n">
+        <v>342.5784615384616</v>
+      </c>
+      <c r="E311" t="n">
+        <v>336.8584615384615</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7595,7 +7643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10783,6 +10831,26 @@
       </c>
       <c r="B318" t="n">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -10956,28 +11024,28 @@
         <v>0.0956</v>
       </c>
       <c r="I2" t="n">
-        <v>0.080121265871227</v>
+        <v>0.07714630074237014</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004842698322680028</v>
+        <v>0.004558911642547514</v>
       </c>
       <c r="M2" t="n">
-        <v>6.44732181677505</v>
+        <v>6.413734076513844</v>
       </c>
       <c r="N2" t="n">
-        <v>67.52285070895459</v>
+        <v>67.06160819518539</v>
       </c>
       <c r="O2" t="n">
-        <v>8.21722889476462</v>
+        <v>8.189115226639895</v>
       </c>
       <c r="P2" t="n">
-        <v>348.807378457836</v>
+        <v>348.838632613027</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11034,28 +11102,28 @@
         <v>0.0803</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1785904647291264</v>
+        <v>0.1713362036541526</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01750080567801227</v>
+        <v>0.0163485128921137</v>
       </c>
       <c r="M3" t="n">
-        <v>7.37987670718147</v>
+        <v>7.36390052916792</v>
       </c>
       <c r="N3" t="n">
-        <v>89.66054256158853</v>
+        <v>89.20098413291326</v>
       </c>
       <c r="O3" t="n">
-        <v>9.468925100643078</v>
+        <v>9.444627262783495</v>
       </c>
       <c r="P3" t="n">
-        <v>345.9294263765914</v>
+        <v>346.0060752764612</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11112,28 +11180,28 @@
         <v>0.0732</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2176039466594731</v>
+        <v>0.20296755635319</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03204045607401484</v>
+        <v>0.02816491063189874</v>
       </c>
       <c r="M4" t="n">
-        <v>6.566643257677</v>
+        <v>6.584040341762491</v>
       </c>
       <c r="N4" t="n">
-        <v>69.61408496740162</v>
+        <v>69.77051025847044</v>
       </c>
       <c r="O4" t="n">
-        <v>8.343505556263603</v>
+        <v>8.352874371045601</v>
       </c>
       <c r="P4" t="n">
-        <v>347.6589506920624</v>
+        <v>347.8171676431258</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11190,28 +11258,28 @@
         <v>0.0728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2912882830717394</v>
+        <v>0.2618164824675543</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04109345318657243</v>
+        <v>0.03310352573406461</v>
       </c>
       <c r="M5" t="n">
-        <v>7.728194775843797</v>
+        <v>7.807975240253198</v>
       </c>
       <c r="N5" t="n">
-        <v>97.86705381198767</v>
+        <v>99.84546369720069</v>
       </c>
       <c r="O5" t="n">
-        <v>9.892777861247451</v>
+        <v>9.992270197367597</v>
       </c>
       <c r="P5" t="n">
-        <v>351.0179146156203</v>
+        <v>351.3318179299713</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11249,7 +11317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20593,6 +20661,70 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-35.550385156617075,174.47108734995965</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-35.55112448036586,174.47122665966015</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-35.55181403709093,174.47158826099357</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-35.55246724021534,174.4720203319819</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-35.550387392212635,174.4710751426323</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-35.55111784184525,174.4712516908297</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-35.551823270070656,174.4715662670159</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-35.5524898785304,174.47197415603097</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7629,6 +7629,30 @@
       <c r="F311" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>353.6494117647059</v>
+      </c>
+      <c r="C312" t="n">
+        <v>351.5042857142857</v>
+      </c>
+      <c r="D312" t="n">
+        <v>347.9130769230769</v>
+      </c>
+      <c r="E312" t="n">
+        <v>358.1530769230769</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10851,6 +10875,16 @@
       </c>
       <c r="B320" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -11024,28 +11058,28 @@
         <v>0.0956</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07714630074237014</v>
+        <v>0.07920725365263077</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K2" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004558911642547514</v>
+        <v>0.004839673917470866</v>
       </c>
       <c r="M2" t="n">
-        <v>6.413734076513844</v>
+        <v>6.401404287461861</v>
       </c>
       <c r="N2" t="n">
-        <v>67.06160819518539</v>
+        <v>66.84607067077198</v>
       </c>
       <c r="O2" t="n">
-        <v>8.189115226639895</v>
+        <v>8.175944634766797</v>
       </c>
       <c r="P2" t="n">
-        <v>348.838632613027</v>
+        <v>348.8168663175618</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11102,28 +11136,28 @@
         <v>0.0803</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1713362036541526</v>
+        <v>0.1721084379279687</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K3" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0163485128921137</v>
+        <v>0.01662060568663792</v>
       </c>
       <c r="M3" t="n">
-        <v>7.36390052916792</v>
+        <v>7.341291608998225</v>
       </c>
       <c r="N3" t="n">
-        <v>89.20098413291326</v>
+        <v>88.88851519983466</v>
       </c>
       <c r="O3" t="n">
-        <v>9.444627262783495</v>
+        <v>9.428070597944982</v>
       </c>
       <c r="P3" t="n">
-        <v>346.0060752764612</v>
+        <v>345.9978724270718</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11180,28 +11214,28 @@
         <v>0.0732</v>
       </c>
       <c r="I4" t="n">
-        <v>0.20296755635319</v>
+        <v>0.1990159704621286</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K4" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02816491063189874</v>
+        <v>0.02728229783258584</v>
       </c>
       <c r="M4" t="n">
-        <v>6.584040341762491</v>
+        <v>6.578097641776221</v>
       </c>
       <c r="N4" t="n">
-        <v>69.77051025847044</v>
+        <v>69.6131166739432</v>
       </c>
       <c r="O4" t="n">
-        <v>8.352874371045601</v>
+        <v>8.343447529285672</v>
       </c>
       <c r="P4" t="n">
-        <v>347.8171676431258</v>
+        <v>347.8601004091061</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11258,28 +11292,28 @@
         <v>0.0728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2618164824675543</v>
+        <v>0.2618318806279172</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K5" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03310352573406461</v>
+        <v>0.03336750654379095</v>
       </c>
       <c r="M5" t="n">
-        <v>7.807975240253198</v>
+        <v>7.77955083833885</v>
       </c>
       <c r="N5" t="n">
-        <v>99.84546369720069</v>
+        <v>99.48106565530564</v>
       </c>
       <c r="O5" t="n">
-        <v>9.992270197367597</v>
+        <v>9.97401953353339</v>
       </c>
       <c r="P5" t="n">
-        <v>351.3318179299713</v>
+        <v>351.3316530922168</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11317,7 +11351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20725,6 +20759,38 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-35.55037682066419,174.4711328678352</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-35.55110480329886,174.4713008538328</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-35.55180129658638,174.47161861025901</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-35.55239112383861,174.4721755880546</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -11049,13 +11049,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.0599</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0956</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0.07920008298113551</v>
@@ -11130,10 +11130,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0605</v>
+        <v>0.059</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0803</v>
+        <v>0.0852</v>
       </c>
       <c r="I3" t="n">
         <v>0.1721132617527067</v>
@@ -11205,13 +11205,13 @@
         <v>0.6656947745509737</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.059</v>
+        <v>0.0648</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0732</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>0.199059267230329</v>
@@ -11283,13 +11283,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0553</v>
+        <v>0.0633</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0728</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>0.2618715718838922</v>

--- a/data/nzd0088/nzd0088.xlsx
+++ b/data/nzd0088/nzd0088.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F313"/>
+  <dimension ref="A1:F314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7951,6 +7951,30 @@
       <c r="F313" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>352.6</v>
+      </c>
+      <c r="C314" t="n">
+        <v>348.18</v>
+      </c>
+      <c r="D314" t="n">
+        <v>349.09</v>
+      </c>
+      <c r="E314" t="n">
+        <v>352.02</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11193,6 +11217,16 @@
       </c>
       <c r="B322" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -11360,34 +11394,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0599</v>
+        <v>0.06</v>
       </c>
       <c r="H2" t="n">
         <v>0.08459999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07786915573171499</v>
+        <v>0.07873276308961163</v>
       </c>
       <c r="J2" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01575261276718054</v>
+        <v>0.01620755002494889</v>
       </c>
       <c r="M2" t="n">
-        <v>3.289375902192138</v>
+        <v>3.282809325970967</v>
       </c>
       <c r="N2" t="n">
-        <v>19.26712713245033</v>
+        <v>19.21087703314693</v>
       </c>
       <c r="O2" t="n">
-        <v>4.389433577632805</v>
+        <v>4.383021450226651</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2648501541759</v>
+        <v>349.2556233621391</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11438,34 +11472,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0591</v>
+        <v>0.0592</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0853</v>
+        <v>0.0854</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1964000994853777</v>
+        <v>0.1946124910405271</v>
       </c>
       <c r="J3" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07159088509302447</v>
+        <v>0.070795239015497</v>
       </c>
       <c r="M3" t="n">
-        <v>3.62842450788783</v>
+        <v>3.625507925133503</v>
       </c>
       <c r="N3" t="n">
-        <v>25.43896444899821</v>
+        <v>25.38042491786665</v>
       </c>
       <c r="O3" t="n">
-        <v>5.043705428452202</v>
+        <v>5.03789885943204</v>
       </c>
       <c r="P3" t="n">
-        <v>345.7284977171106</v>
+        <v>345.7475965485566</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11519,31 +11553,31 @@
         <v>0.0648</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.0801</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2201359561337247</v>
+        <v>0.2173216571285147</v>
       </c>
       <c r="J4" t="n">
+        <v>313</v>
+      </c>
+      <c r="K4" t="n">
         <v>312</v>
       </c>
-      <c r="K4" t="n">
-        <v>311</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.139804304060653</v>
+        <v>0.1371418192729557</v>
       </c>
       <c r="M4" t="n">
-        <v>2.919487229777121</v>
+        <v>2.923908731592674</v>
       </c>
       <c r="N4" t="n">
-        <v>15.1760745398065</v>
+        <v>15.18390442156068</v>
       </c>
       <c r="O4" t="n">
-        <v>3.895648154005505</v>
+        <v>3.896652976794403</v>
       </c>
       <c r="P4" t="n">
-        <v>347.554895110256</v>
+        <v>347.5849824451844</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11594,34 +11628,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0633</v>
+        <v>0.0631</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08450000000000001</v>
+        <v>0.0842</v>
       </c>
       <c r="I5" t="n">
-        <v>0.271238007947032</v>
+        <v>0.2671951288933959</v>
       </c>
       <c r="J5" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L5" t="n">
-        <v>0.162157109833852</v>
+        <v>0.1582687952088898</v>
       </c>
       <c r="M5" t="n">
-        <v>3.351201246122192</v>
+        <v>3.359506162217833</v>
       </c>
       <c r="N5" t="n">
-        <v>19.33134374036864</v>
+        <v>19.38586998296789</v>
       </c>
       <c r="O5" t="n">
-        <v>4.39674240095649</v>
+        <v>4.402938789373285</v>
       </c>
       <c r="P5" t="n">
-        <v>350.9991443804524</v>
+        <v>351.0423385518743</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11659,7 +11693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F313"/>
+  <dimension ref="A1:F314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21679,6 +21713,38 @@
         </is>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-35.550378889290066,174.47112157226093</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-35.551114053513516,174.471265975082</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-35.55179644879236,174.47163015822363</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-35.55241956627924,174.47211757352943</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
